--- a/domain_files/ifdat/template/OTHER_KEY_TEMPLATE.xlsx
+++ b/domain_files/ifdat/template/OTHER_KEY_TEMPLATE.xlsx
@@ -655,7 +655,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -664,42 +664,42 @@
     <row r="3" ht="40" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_ORG</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr"/>
+          <t>DOMAIN</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IFDAT</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SOURCE_PERSON</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr"/>
+          <t>CATEGORY</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>OTHER_KEY</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>IFDAT</t>
-        </is>
-      </c>
+          <t>SOURCE_ORG</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SUB_CATEGORY</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>OTHER_KEY</t>
-        </is>
-      </c>
+          <t>SOURCE_PERSON</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -723,7 +723,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -791,7 +791,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -827,7 +827,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -839,7 +839,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -863,7 +863,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -875,7 +875,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -887,7 +887,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -899,16 +899,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
       <c r="B15" t="inlineStr">
         <is>
           <t>HKD</t>
@@ -1117,7 +1122,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1382,7 +1387,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1647,7 +1652,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -1909,7 +1914,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -2018,7 +2023,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -2349,7 +2354,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -2614,7 +2619,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -2879,7 +2884,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.5" customWidth="1" min="1" max="1"/>
     <col width="13.5" customWidth="1" min="2" max="2"/>
@@ -3195,7 +3200,7 @@
   </mergeCells>
   <dataValidations count="5">
     <dataValidation sqref="C4:C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>'DIVIDEND_'!$A$1:$A$14</formula1>
+      <formula1>'DIVIDEND_'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>'DIVIDEND_'!$B$1:$B$41</formula1>
